--- a/Data/FundsTransferOnline.xlsx
+++ b/Data/FundsTransferOnline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -58,6 +58,39 @@
   </si>
   <si>
     <t>FT223640JZJD3DVM</t>
+  </si>
+  <si>
+    <t>FT231680GNW5GHWN</t>
+  </si>
+  <si>
+    <t>FT231680XLHY7PKL</t>
+  </si>
+  <si>
+    <t>FT231680LNFJP367</t>
+  </si>
+  <si>
+    <t>FT231680GNW5GP9F</t>
+  </si>
+  <si>
+    <t>FT2316803Z2HPVN4</t>
+  </si>
+  <si>
+    <t>FT231680MKQM392C</t>
+  </si>
+  <si>
+    <t>FT2316803Z2HPZDC</t>
+  </si>
+  <si>
+    <t>FT2316805D7D4GNY</t>
+  </si>
+  <si>
+    <t>FT231680T6166DLZ</t>
+  </si>
+  <si>
+    <t>FT231680MKQM407H</t>
+  </si>
+  <si>
+    <t>FT231680PGLP2QGQ</t>
   </si>
 </sst>
 </file>
@@ -376,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -449,6 +482,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/FundsTransferOnline.xlsx
+++ b/Data/FundsTransferOnline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>FT231680PGLP2QGQ</t>
+  </si>
+  <si>
+    <t>FT231680YWPX2MQH</t>
+  </si>
+  <si>
+    <t>FT231680479VZB7Z</t>
+  </si>
+  <si>
+    <t>FT23168038NJC2KJ</t>
+  </si>
+  <si>
+    <t>FT231680Z24M29HF</t>
+  </si>
+  <si>
+    <t>FT231680Z24M2C1T</t>
+  </si>
+  <si>
+    <t>FT23168152DFZ1CY</t>
+  </si>
+  <si>
+    <t>FT231680BYRGG3FL</t>
+  </si>
+  <si>
+    <t>FT23168152DFZ579</t>
+  </si>
+  <si>
+    <t>FT231680Z24M2VG6</t>
+  </si>
+  <si>
+    <t>FT231680G1NNG9F2</t>
+  </si>
+  <si>
+    <t>FT23168038NJCSJ6</t>
+  </si>
+  <si>
+    <t>FT231680T1ZTTVRM</t>
   </si>
 </sst>
 </file>
@@ -409,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -537,6 +573,66 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/FundsTransferOnline.xlsx
+++ b/Data/FundsTransferOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -127,13 +127,18 @@
   </si>
   <si>
     <t>FT231680T1ZTTVRM</t>
+  </si>
+  <si>
+    <t>FT23185000NSGYBV</t>
+  </si>
+  <si>
+    <t>FT231850JRZ2B868</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,179 +463,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
